--- a/data/542/BOKNA/Quarterly_Nominal_SA.xlsx
+++ b/data/542/BOKNA/Quarterly_Nominal_SA.xlsx
@@ -666,7 +666,8 @@
     <col min="249" max="249" width="14.0" customWidth="true"/>
     <col min="250" max="250" width="14.0" customWidth="true"/>
     <col min="251" max="251" width="14.0" customWidth="true"/>
-    <col min="252" max="252" width="4.0" customWidth="true"/>
+    <col min="252" max="252" width="14.0" customWidth="true"/>
+    <col min="253" max="253" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1930,6 +1931,11 @@
           <t>2021 4</t>
         </is>
       </c>
+      <c r="IS1" s="2" t="inlineStr">
+        <is>
+          <t>2022 1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2693,7 +2699,10 @@
       <c r="IQ2" s="5" t="n">
         <v>334195.4</v>
       </c>
-      <c r="IR2" s="1" t="inlineStr">
+      <c r="IR2" s="5" t="n">
+        <v>342503.5</v>
+      </c>
+      <c r="IS2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3461,7 +3470,10 @@
       <c r="IQ3" s="5" t="n">
         <v>239708.4</v>
       </c>
-      <c r="IR3" s="1" t="inlineStr">
+      <c r="IR3" s="5" t="n">
+        <v>245609.3</v>
+      </c>
+      <c r="IS3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -4309,7 +4321,10 @@
       <c r="IQ4" s="3" t="n">
         <v>230720.1</v>
       </c>
-      <c r="IR4" s="1" t="inlineStr">
+      <c r="IR4" s="3" t="n">
+        <v>236431.0</v>
+      </c>
+      <c r="IS4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5157,7 +5172,10 @@
       <c r="IQ5" s="3" t="n">
         <v>8988.3</v>
       </c>
-      <c r="IR5" s="1" t="inlineStr">
+      <c r="IR5" s="3" t="n">
+        <v>9178.4</v>
+      </c>
+      <c r="IS5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -5925,7 +5943,10 @@
       <c r="IQ6" s="5" t="n">
         <v>94486.9</v>
       </c>
-      <c r="IR6" s="1" t="inlineStr">
+      <c r="IR6" s="5" t="n">
+        <v>96894.2</v>
+      </c>
+      <c r="IS6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -6693,7 +6714,10 @@
       <c r="IQ7" s="5" t="n">
         <v>164530.0</v>
       </c>
-      <c r="IR7" s="1" t="inlineStr">
+      <c r="IR7" s="5" t="n">
+        <v>171124.3</v>
+      </c>
+      <c r="IS7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7461,7 +7485,10 @@
       <c r="IQ8" s="5" t="n">
         <v>162125.4</v>
       </c>
-      <c r="IR8" s="1" t="inlineStr">
+      <c r="IR8" s="5" t="n">
+        <v>165112.1</v>
+      </c>
+      <c r="IS8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8229,7 +8256,10 @@
       <c r="IQ9" s="5" t="n">
         <v>78714.7</v>
       </c>
-      <c r="IR9" s="1" t="inlineStr">
+      <c r="IR9" s="5" t="n">
+        <v>80045.3</v>
+      </c>
+      <c r="IS9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8997,7 +9027,10 @@
       <c r="IQ10" s="5" t="n">
         <v>46929.8</v>
       </c>
-      <c r="IR10" s="1" t="inlineStr">
+      <c r="IR10" s="5" t="n">
+        <v>47392.2</v>
+      </c>
+      <c r="IS10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9765,7 +9798,10 @@
       <c r="IQ11" s="5" t="n">
         <v>36480.9</v>
       </c>
-      <c r="IR11" s="1" t="inlineStr">
+      <c r="IR11" s="5" t="n">
+        <v>37674.6</v>
+      </c>
+      <c r="IS11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -10533,7 +10569,10 @@
       <c r="IQ12" s="5" t="n">
         <v>2404.6</v>
       </c>
-      <c r="IR12" s="1" t="inlineStr">
+      <c r="IR12" s="5" t="n">
+        <v>6012.2</v>
+      </c>
+      <c r="IS12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11301,7 +11340,10 @@
       <c r="IQ13" s="5" t="n">
         <v>221543.3</v>
       </c>
-      <c r="IR13" s="1" t="inlineStr">
+      <c r="IR13" s="5" t="n">
+        <v>235811.6</v>
+      </c>
+      <c r="IS13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12069,7 +12111,10 @@
       <c r="IQ14" s="5" t="n">
         <v>187698.1</v>
       </c>
-      <c r="IR14" s="1" t="inlineStr">
+      <c r="IR14" s="5" t="n">
+        <v>200746.3</v>
+      </c>
+      <c r="IS14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12837,7 +12882,10 @@
       <c r="IQ15" s="5" t="n">
         <v>201569.3</v>
       </c>
-      <c r="IR15" s="1" t="inlineStr">
+      <c r="IR15" s="5" t="n">
+        <v>223194.3</v>
+      </c>
+      <c r="IS15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -13605,7 +13653,10 @@
       <c r="IQ16" s="5" t="n">
         <v>167411.5</v>
       </c>
-      <c r="IR16" s="1" t="inlineStr">
+      <c r="IR16" s="5" t="n">
+        <v>186429.9</v>
+      </c>
+      <c r="IS16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14373,7 +14424,10 @@
       <c r="IQ17" s="5" t="n">
         <v>-678.1</v>
       </c>
-      <c r="IR17" s="1" t="inlineStr">
+      <c r="IR17" s="5" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="IS17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15141,7 +15195,10 @@
       <c r="IQ18" s="5" t="n">
         <v>9121.7</v>
       </c>
-      <c r="IR18" s="1" t="inlineStr">
+      <c r="IR18" s="5" t="n">
+        <v>9197.1</v>
+      </c>
+      <c r="IS18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -15909,7 +15966,10 @@
       <c r="IQ19" s="5" t="n">
         <v>530.1</v>
       </c>
-      <c r="IR19" s="1" t="inlineStr">
+      <c r="IR19" s="5" t="n">
+        <v>485.9</v>
+      </c>
+      <c r="IS19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -16677,7 +16737,10 @@
       <c r="IQ20" s="5" t="n">
         <v>134254.3</v>
       </c>
-      <c r="IR20" s="1" t="inlineStr">
+      <c r="IR20" s="5" t="n">
+        <v>134419.6</v>
+      </c>
+      <c r="IS20" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17445,7 +17508,10 @@
       <c r="IQ21" s="5" t="n">
         <v>8421.0</v>
       </c>
-      <c r="IR21" s="1" t="inlineStr">
+      <c r="IR21" s="5" t="n">
+        <v>7857.0</v>
+      </c>
+      <c r="IS21" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18213,7 +18279,10 @@
       <c r="IQ22" s="5" t="n">
         <v>26378.9</v>
       </c>
-      <c r="IR22" s="1" t="inlineStr">
+      <c r="IR22" s="5" t="n">
+        <v>27138.3</v>
+      </c>
+      <c r="IS22" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -18981,7 +19050,10 @@
       <c r="IQ23" s="5" t="n">
         <v>45064.3</v>
       </c>
-      <c r="IR23" s="1" t="inlineStr">
+      <c r="IR23" s="5" t="n">
+        <v>47678.1</v>
+      </c>
+      <c r="IS23" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -19749,7 +19821,10 @@
       <c r="IQ24" s="5" t="n">
         <v>16436.3</v>
       </c>
-      <c r="IR24" s="1" t="inlineStr">
+      <c r="IR24" s="5" t="n">
+        <v>19653.2</v>
+      </c>
+      <c r="IS24" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20517,7 +20592,10 @@
       <c r="IQ25" s="5" t="n">
         <v>30996.5</v>
       </c>
-      <c r="IR25" s="1" t="inlineStr">
+      <c r="IR25" s="5" t="n">
+        <v>31710.2</v>
+      </c>
+      <c r="IS25" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -21285,7 +21363,10 @@
       <c r="IQ26" s="5" t="n">
         <v>36642.5</v>
       </c>
-      <c r="IR26" s="1" t="inlineStr">
+      <c r="IR26" s="5" t="n">
+        <v>36421.1</v>
+      </c>
+      <c r="IS26" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22053,7 +22134,10 @@
       <c r="IQ27" s="5" t="n">
         <v>34020.2</v>
       </c>
-      <c r="IR27" s="1" t="inlineStr">
+      <c r="IR27" s="5" t="n">
+        <v>34489.0</v>
+      </c>
+      <c r="IS27" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -22821,7 +22905,10 @@
       <c r="IQ28" s="5" t="n">
         <v>24827.9</v>
       </c>
-      <c r="IR28" s="1" t="inlineStr">
+      <c r="IR28" s="5" t="n">
+        <v>24307.1</v>
+      </c>
+      <c r="IS28" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23589,7 +23676,10 @@
       <c r="IQ29" s="5" t="n">
         <v>25052.0</v>
       </c>
-      <c r="IR29" s="1" t="inlineStr">
+      <c r="IR29" s="5" t="n">
+        <v>25569.3</v>
+      </c>
+      <c r="IS29" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -24357,7 +24447,10 @@
       <c r="IQ30" s="5" t="n">
         <v>9977.6</v>
       </c>
-      <c r="IR30" s="1" t="inlineStr">
+      <c r="IR30" s="5" t="n">
+        <v>10275.4</v>
+      </c>
+      <c r="IS30" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25125,7 +25218,10 @@
       <c r="IQ31" s="5" t="n">
         <v>44075.2</v>
       </c>
-      <c r="IR31" s="1" t="inlineStr">
+      <c r="IR31" s="5" t="n">
+        <v>43340.2</v>
+      </c>
+      <c r="IS31" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -25893,7 +25989,10 @@
       <c r="IQ32" s="5" t="n">
         <v>518021.3</v>
       </c>
-      <c r="IR32" s="1" t="inlineStr">
+      <c r="IR32" s="5" t="n">
+        <v>526257.6</v>
+      </c>
+      <c r="IS32" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -26661,7 +26760,10 @@
       <c r="IQ33" s="5" t="n">
         <v>521250.9</v>
       </c>
-      <c r="IR33" s="1" t="inlineStr">
+      <c r="IR33" s="5" t="n">
+        <v>530611.9</v>
+      </c>
+      <c r="IS33" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
